--- a/干系人分析矩阵.xlsx
+++ b/干系人分析矩阵.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410846AB-C11E-4095-8374-CA38CDA95B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D433F76E-17E3-4669-93BD-5C8F19239E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>干系人分析矩阵</t>
   </si>
@@ -36,10 +36,22 @@
     <t>准备日期</t>
   </si>
   <si>
-    <t>权力</t>
-  </si>
-  <si>
-    <t>收益</t>
+    <t>D监督（保持关注）</t>
+  </si>
+  <si>
+    <t>A令其满意</t>
+  </si>
+  <si>
+    <t>B重点管理</t>
+  </si>
+  <si>
+    <t>C随时告知</t>
+  </si>
+  <si>
+    <t>权力、影响力</t>
+  </si>
+  <si>
+    <t>收益（低-&gt;高）</t>
   </si>
 </sst>
 </file>
@@ -413,7 +425,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B7" sqref="B7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -440,11 +452,15 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -456,9 +472,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -471,7 +491,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
